--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema6b-Plxna2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.893586666666666</v>
+        <v>5.120216</v>
       </c>
       <c r="H2">
-        <v>26.68076</v>
+        <v>15.360648</v>
       </c>
       <c r="I2">
-        <v>0.7066310027692895</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="J2">
-        <v>0.7066310027692896</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N2">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O2">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P2">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q2">
-        <v>261.6547803955467</v>
+        <v>156.776912626984</v>
       </c>
       <c r="R2">
-        <v>2354.89302355992</v>
+        <v>1410.992213642856</v>
       </c>
       <c r="S2">
-        <v>0.4144522836822047</v>
+        <v>0.4591969219376825</v>
       </c>
       <c r="T2">
-        <v>0.4144522836822047</v>
+        <v>0.4591969219376825</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.893586666666666</v>
+        <v>5.120216</v>
       </c>
       <c r="H3">
-        <v>26.68076</v>
+        <v>15.360648</v>
       </c>
       <c r="I3">
-        <v>0.7066310027692895</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="J3">
-        <v>0.7066310027692896</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.240936</v>
       </c>
       <c r="O3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q3">
-        <v>36.28860839904</v>
+        <v>20.892078787392</v>
       </c>
       <c r="R3">
-        <v>326.59747559136</v>
+        <v>188.028709086528</v>
       </c>
       <c r="S3">
-        <v>0.05747992297291633</v>
+        <v>0.061192544943628</v>
       </c>
       <c r="T3">
-        <v>0.05747992297291634</v>
+        <v>0.061192544943628</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.893586666666666</v>
+        <v>5.120216</v>
       </c>
       <c r="H4">
-        <v>26.68076</v>
+        <v>15.360648</v>
       </c>
       <c r="I4">
-        <v>0.7066310027692895</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="J4">
-        <v>0.7066310027692896</v>
+        <v>0.6605827952276282</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N4">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q4">
-        <v>148.1716095535866</v>
+        <v>47.86416489093866</v>
       </c>
       <c r="R4">
-        <v>1333.54448598228</v>
+        <v>430.777484018448</v>
       </c>
       <c r="S4">
-        <v>0.2346987961141686</v>
+        <v>0.1401933283463177</v>
       </c>
       <c r="T4">
-        <v>0.2346987961141686</v>
+        <v>0.1401933283463177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.247948000000001</v>
       </c>
       <c r="I5">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="J5">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N5">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O5">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P5">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q5">
-        <v>61.27282213335735</v>
+        <v>63.76905438455067</v>
       </c>
       <c r="R5">
-        <v>551.4553992002161</v>
+        <v>573.921489460956</v>
       </c>
       <c r="S5">
-        <v>0.09705406880942162</v>
+        <v>0.1867784803106418</v>
       </c>
       <c r="T5">
-        <v>0.09705406880942161</v>
+        <v>0.1867784803106418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.247948000000001</v>
       </c>
       <c r="I6">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="J6">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.240936</v>
       </c>
       <c r="O6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q6">
         <v>8.497859066592003</v>
@@ -818,10 +818,10 @@
         <v>76.48073159932802</v>
       </c>
       <c r="S6">
-        <v>0.01346032008753824</v>
+        <v>0.02489008528777241</v>
       </c>
       <c r="T6">
-        <v>0.01346032008753824</v>
+        <v>0.02489008528777242</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.247948000000001</v>
       </c>
       <c r="I7">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="J7">
-        <v>0.1654748125799407</v>
+        <v>0.2686922422984284</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N7">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q7">
-        <v>34.69798130064933</v>
+        <v>19.46876286091645</v>
       </c>
       <c r="R7">
-        <v>312.281831705844</v>
+        <v>175.218865748248</v>
       </c>
       <c r="S7">
-        <v>0.05496042368298083</v>
+        <v>0.05702367670001416</v>
       </c>
       <c r="T7">
-        <v>0.05496042368298082</v>
+        <v>0.05702367670001416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.609663333333333</v>
+        <v>0.5481933333333333</v>
       </c>
       <c r="H8">
-        <v>4.82899</v>
+        <v>1.64458</v>
       </c>
       <c r="I8">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="J8">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N8">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O8">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P8">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q8">
-        <v>47.35728359995333</v>
+        <v>16.78524076380666</v>
       </c>
       <c r="R8">
-        <v>426.21555239958</v>
+        <v>151.06716687426</v>
       </c>
       <c r="S8">
-        <v>0.07501232848608998</v>
+        <v>0.04916368592524702</v>
       </c>
       <c r="T8">
-        <v>0.07501232848608996</v>
+        <v>0.04916368592524702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.609663333333333</v>
+        <v>0.5481933333333333</v>
       </c>
       <c r="H9">
-        <v>4.82899</v>
+        <v>1.64458</v>
       </c>
       <c r="I9">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="J9">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.240936</v>
       </c>
       <c r="O9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q9">
-        <v>6.56792861496</v>
+        <v>2.23679983632</v>
       </c>
       <c r="R9">
-        <v>59.11135753464001</v>
+        <v>20.13119852688</v>
       </c>
       <c r="S9">
-        <v>0.01040337581227009</v>
+        <v>0.006551548838525024</v>
       </c>
       <c r="T9">
-        <v>0.01040337581227009</v>
+        <v>0.006551548838525025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.609663333333333</v>
+        <v>0.5481933333333333</v>
       </c>
       <c r="H10">
-        <v>4.82899</v>
+        <v>1.64458</v>
       </c>
       <c r="I10">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="J10">
-        <v>0.1278941846507698</v>
+        <v>0.07072496247394333</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N10">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q10">
-        <v>26.81779757466333</v>
+        <v>5.12455257723111</v>
       </c>
       <c r="R10">
-        <v>241.3601781719699</v>
+        <v>46.12097319507999</v>
       </c>
       <c r="S10">
-        <v>0.04247848035240972</v>
+        <v>0.01500972771017129</v>
       </c>
       <c r="T10">
-        <v>0.04247848035240971</v>
+        <v>0.01500972771017129</v>
       </c>
     </row>
   </sheetData>
